--- a/设计文档/配表.xlsx
+++ b/设计文档/配表.xlsx
@@ -5,14 +5,17 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gefuzhen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gefuzhen/MiniGames/设计文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18480" yWindow="4780" windowWidth="36280" windowHeight="21120" tabRatio="500"/>
+    <workbookView xWindow="8100" yWindow="4960" windowWidth="22040" windowHeight="13820" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Block.xml" sheetId="2" r:id="rId2"/>
+    <sheet name="Item.xml" sheetId="4" r:id="rId3"/>
+    <sheet name="effect.xml" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>障碍</t>
     <rPh sb="0" eb="1">
@@ -201,7 +204,258 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>。。</t>
+    <t xml:space="preserve">。。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NormalBlock</t>
+  </si>
+  <si>
+    <t>BigBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DizzyBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighSpeedBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priority</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attributekey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>starttime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durationtime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invincible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamina</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65,65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAMINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>instantable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCORE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQUAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STAMINA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPEED_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET_SIZE_Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAGNET_SIZE_X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>collision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enumtype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(-2,-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(2,-10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,-15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,8 +500,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -527,17 +782,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="10.6640625" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
@@ -718,4 +973,733 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>-80</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>1002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="1">
+        <v>130130</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>-120</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>1003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>-40</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5">
+        <v>1004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>150</v>
+      </c>
+      <c r="G5">
+        <v>-80</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1005</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6">
+        <v>150</v>
+      </c>
+      <c r="G6">
+        <v>-80</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1006</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7">
+        <v>300</v>
+      </c>
+      <c r="G7">
+        <v>-80</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8">
+        <v>1007</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>-120</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>15</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>1500</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4">
+        <v>2003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>2004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>3000</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2">
+        <v>3001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>3002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4">
+        <v>3003</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5">
+        <v>3004</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>3005</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>3006</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>3007</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/设计文档/配表.xlsx
+++ b/设计文档/配表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="4960" windowWidth="22040" windowHeight="13820" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="8100" yWindow="4960" windowWidth="22040" windowHeight="13820" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L8"/>
     </sheetView>
   </sheetViews>
@@ -1303,7 +1303,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1472,8 +1472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
